--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1580769.641018101</v>
+        <v>-1581481.942841145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1215,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>172.238071737093</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240821</v>
+        <v>62.86150506240831</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.7332812292991</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538045</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675154</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>12.37264458751747</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298205</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693648</v>
+        <v>13.44252716693659</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>36.82265945242256</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382089</v>
       </c>
       <c r="V12" t="n">
-        <v>168.0817228644495</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>131.2313854133402</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>45.2360219809579</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256628</v>
+        <v>25.2816970025664</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311284</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725529</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154979</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138219</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517481</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.9930086611007</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.727515613709755</v>
       </c>
       <c r="I14" t="n">
-        <v>46.60164348025388</v>
+        <v>62.8615050624082</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929898</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
         <v>181.6344501416383</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>9.369887371298091</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>51.26647440670799</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693648</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242245</v>
+        <v>50.35475090383993</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382078</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="V15" t="n">
         <v>62.50065676233442</v>
@@ -1749,7 +1749,7 @@
         <v>88.55631942394376</v>
       </c>
       <c r="X15" t="n">
-        <v>188.4979333192472</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y15" t="n">
         <v>45.23602198095779</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.3007248604234894</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>182.6993411470405</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130288</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
         <v>121.3905020356641</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.4279780570787</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.315866468385013</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
     </row>
     <row r="22">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.33593080305316</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192472</v>
+        <v>5.604332933298833</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845497</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.5250186914751</v>
+        <v>27.52501869147499</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444724</v>
+        <v>14.03224403444713</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818321</v>
+        <v>8.981130875818208</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864881</v>
+        <v>36.6657909686487</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>57.46021291334225</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.61314915145657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489347</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288768</v>
+        <v>23.74331897288756</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.1641703914012</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301066</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469673</v>
+        <v>3.82816391546956</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024685</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147507</v>
+        <v>27.5250186914751</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444721</v>
+        <v>14.03224403444724</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818293</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V29" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>19.70123548168038</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489318</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140129</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>64.47611688890481</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758289</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008953956</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178455</v>
+        <v>35.83808110178447</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>47.80858610103568</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9709236054903</v>
+        <v>130.6195882106406</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602341</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>26.33646052453696</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614639</v>
+        <v>52.39212318614631</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.00045404860532</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160417</v>
+        <v>9.071825743160332</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531536</v>
+        <v>21.12558397531528</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457809</v>
+        <v>9.449098059457723</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770041</v>
+        <v>74.34409657770033</v>
       </c>
       <c r="V34" t="n">
-        <v>30.7965547935847</v>
+        <v>30.79655479358462</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847013</v>
+        <v>75.99824669847004</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377329</v>
+        <v>7.606995017377244</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303219</v>
+        <v>2.828812423303134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215648</v>
       </c>
       <c r="C35" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491032</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71299138595856</v>
+        <v>65.71299138595879</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536766</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837448</v>
+        <v>131.140081383745</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063801</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228206</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288352</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949839</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843763</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621814</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>3.469055189517123</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>125.2256068851174</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4608093700287</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229711</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306683</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215646</v>
+        <v>102.0280721215648</v>
       </c>
       <c r="C38" t="n">
-        <v>78.1463291249101</v>
+        <v>78.14632912491032</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71299138595856</v>
+        <v>65.71299138595879</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536743</v>
+        <v>99.41974380536766</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837448</v>
+        <v>131.140081383745</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063801</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228184</v>
+        <v>74.96223035228206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288329</v>
+        <v>48.82061535288352</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949817</v>
+        <v>65.83729556949839</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843741</v>
+        <v>87.72354603843763</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621812</v>
+        <v>110.2263991621814</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>12.94577800705615</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>28.92492497967408</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229688</v>
+        <v>16.59738871229711</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.2515388330666</v>
+        <v>18.25153883306683</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>39.72613402942305</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>175.0576824579384</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.72613402942294</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161005</v>
+        <v>6.869455874161012</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>113.0942482919568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4820,13 +4820,13 @@
         <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S8" t="n">
         <v>6.719070557086891</v>
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>9.565433267111001</v>
+      </c>
+      <c r="C9" t="n">
         <v>6.333867974168094</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
         <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,7 +4887,7 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>6.462484272827225</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="M9" t="n">
         <v>6.462484272827225</v>
@@ -4923,10 +4923,10 @@
         <v>9.565433267111001</v>
       </c>
       <c r="X9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>426.349339743936</v>
+        <v>629.9591338134037</v>
       </c>
       <c r="C11" t="n">
-        <v>252.5541546650359</v>
+        <v>629.9591338134037</v>
       </c>
       <c r="D11" t="n">
-        <v>252.5541546650359</v>
+        <v>629.9591338134037</v>
       </c>
       <c r="E11" t="n">
-        <v>78.57630442554809</v>
+        <v>439.5571809656794</v>
       </c>
       <c r="F11" t="n">
-        <v>78.57630442554809</v>
+        <v>439.5571809656794</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554809</v>
+        <v>249.1552281179551</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554809</v>
+        <v>78.57630442554816</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07983466553978</v>
+        <v>115.4328134021287</v>
       </c>
       <c r="K11" t="n">
-        <v>15.07983466553978</v>
+        <v>115.4902538590852</v>
       </c>
       <c r="L11" t="n">
-        <v>201.6927886515946</v>
+        <v>162.2110963398453</v>
       </c>
       <c r="M11" t="n">
-        <v>282.5546877385419</v>
+        <v>243.0729954267927</v>
       </c>
       <c r="N11" t="n">
-        <v>357.8825808742343</v>
+        <v>318.4008885624851</v>
       </c>
       <c r="O11" t="n">
-        <v>544.4955348602891</v>
+        <v>505.0138425485397</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>666.439571432499</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R11" t="n">
-        <v>753.991733276989</v>
+        <v>737.089429004969</v>
       </c>
       <c r="S11" t="n">
-        <v>753.991733276989</v>
+        <v>687.2220245550898</v>
       </c>
       <c r="T11" t="n">
-        <v>753.991733276989</v>
+        <v>642.4567546088759</v>
       </c>
       <c r="U11" t="n">
-        <v>753.991733276989</v>
+        <v>642.4567546088759</v>
       </c>
       <c r="V11" t="n">
-        <v>609.8184813011463</v>
+        <v>629.9591338134037</v>
       </c>
       <c r="W11" t="n">
-        <v>609.8184813011463</v>
+        <v>629.9591338134037</v>
       </c>
       <c r="X11" t="n">
-        <v>426.349339743936</v>
+        <v>629.9591338134037</v>
       </c>
       <c r="Y11" t="n">
-        <v>426.349339743936</v>
+        <v>629.9591338134037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>198.1075712424062</v>
+        <v>77.54958997382339</v>
       </c>
       <c r="C12" t="n">
-        <v>188.6430385441253</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="D12" t="n">
-        <v>188.6430385441253</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554237</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142009</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097938</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137992</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998538</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188891</v>
+        <v>670.3666200188883</v>
       </c>
       <c r="P12" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.991733276989</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R12" t="n">
-        <v>753.991733276989</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073562</v>
+        <v>733.4745786900211</v>
       </c>
       <c r="T12" t="n">
-        <v>703.2188174998588</v>
+        <v>696.2799731825236</v>
       </c>
       <c r="U12" t="n">
-        <v>643.5422464454944</v>
+        <v>636.603402128159</v>
       </c>
       <c r="V12" t="n">
-        <v>473.7627284005959</v>
+        <v>446.2014492804347</v>
       </c>
       <c r="W12" t="n">
-        <v>283.3607755528714</v>
+        <v>255.7994964327104</v>
       </c>
       <c r="X12" t="n">
-        <v>243.8005227383232</v>
+        <v>123.2425414697405</v>
       </c>
       <c r="Y12" t="n">
-        <v>198.1075712424062</v>
+        <v>77.54958997382339</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.60586471875852</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>15.60586471875852</v>
+        <v>26.65400701482418</v>
       </c>
       <c r="D13" t="n">
-        <v>48.24182248209207</v>
+        <v>59.28996477815761</v>
       </c>
       <c r="E13" t="n">
-        <v>48.24182248209207</v>
+        <v>95.39736648959192</v>
       </c>
       <c r="F13" t="n">
-        <v>48.24182248209207</v>
+        <v>95.39736648959192</v>
       </c>
       <c r="G13" t="n">
-        <v>57.59483681574827</v>
+        <v>104.750380823248</v>
       </c>
       <c r="H13" t="n">
-        <v>57.59483681574827</v>
+        <v>116.9510086566651</v>
       </c>
       <c r="I13" t="n">
-        <v>70.75717994000004</v>
+        <v>116.9510086566651</v>
       </c>
       <c r="J13" t="n">
-        <v>70.75717994000004</v>
+        <v>116.9510086566651</v>
       </c>
       <c r="K13" t="n">
-        <v>70.75717994000004</v>
+        <v>226.9581098304041</v>
       </c>
       <c r="L13" t="n">
-        <v>171.0201836654963</v>
+        <v>226.9581098304041</v>
       </c>
       <c r="M13" t="n">
-        <v>171.0201836654963</v>
+        <v>378.3601945970366</v>
       </c>
       <c r="N13" t="n">
-        <v>331.0320093814449</v>
+        <v>520.7166611426688</v>
       </c>
       <c r="O13" t="n">
-        <v>470.2946957351831</v>
+        <v>520.7166611426688</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351831</v>
+        <v>520.7166611426688</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426688</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633089</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015787</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578865</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604138</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064924</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117139</v>
+        <v>98.68003660117161</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099492</v>
+        <v>54.46671210099503</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>426.349339743936</v>
+        <v>274.7636265800501</v>
       </c>
       <c r="C14" t="n">
-        <v>252.5541546650359</v>
+        <v>274.7636265800501</v>
       </c>
       <c r="D14" t="n">
-        <v>252.5541546650359</v>
+        <v>274.7636265800501</v>
       </c>
       <c r="E14" t="n">
-        <v>62.15220181731137</v>
+        <v>84.36167373232556</v>
       </c>
       <c r="F14" t="n">
-        <v>62.15220181731137</v>
+        <v>84.36167373232556</v>
       </c>
       <c r="G14" t="n">
-        <v>62.15220181731137</v>
+        <v>84.36167373232556</v>
       </c>
       <c r="H14" t="n">
-        <v>62.15220181731137</v>
+        <v>78.57630442554803</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
@@ -5282,46 +5282,46 @@
         <v>15.07983466553978</v>
       </c>
       <c r="L14" t="n">
-        <v>61.80067714629995</v>
+        <v>162.2110963398457</v>
       </c>
       <c r="M14" t="n">
-        <v>142.6625762332473</v>
+        <v>243.0729954267931</v>
       </c>
       <c r="N14" t="n">
-        <v>329.275530219302</v>
+        <v>318.4008885624855</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485402</v>
+        <v>505.0138425485403</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324995</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R14" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049699</v>
       </c>
       <c r="S14" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049699</v>
       </c>
       <c r="T14" t="n">
-        <v>753.991733276989</v>
+        <v>692.3241590587564</v>
       </c>
       <c r="U14" t="n">
-        <v>753.991733276989</v>
+        <v>619.5945859884716</v>
       </c>
       <c r="V14" t="n">
-        <v>609.8184813011463</v>
+        <v>619.5945859884716</v>
       </c>
       <c r="W14" t="n">
-        <v>609.8184813011463</v>
+        <v>458.2327681372606</v>
       </c>
       <c r="X14" t="n">
-        <v>426.349339743936</v>
+        <v>274.7636265800501</v>
       </c>
       <c r="Y14" t="n">
-        <v>426.349339743936</v>
+        <v>274.7636265800501</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.328684946354</v>
+        <v>77.54958997382329</v>
       </c>
       <c r="C15" t="n">
-        <v>66.8641522480731</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="D15" t="n">
-        <v>66.8641522480731</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8641522480731</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="F15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142023</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998546</v>
@@ -5373,34 +5373,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P15" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R15" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073562</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998588</v>
+        <v>505.7875513605768</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454944</v>
+        <v>315.3855985128523</v>
       </c>
       <c r="V15" t="n">
-        <v>580.4102699178839</v>
+        <v>252.2536219852418</v>
       </c>
       <c r="W15" t="n">
-        <v>490.9594422169305</v>
+        <v>162.8027942842885</v>
       </c>
       <c r="X15" t="n">
-        <v>300.5574893692061</v>
+        <v>123.2425414697402</v>
       </c>
       <c r="Y15" t="n">
-        <v>254.8645378732891</v>
+        <v>77.54958997382329</v>
       </c>
     </row>
     <row r="16">
@@ -5413,7 +5413,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6540070148243</v>
+        <v>26.65400701482431</v>
       </c>
       <c r="D16" t="n">
         <v>59.28996477815785</v>
@@ -5428,31 +5428,31 @@
         <v>143.5795489385234</v>
       </c>
       <c r="H16" t="n">
-        <v>143.5795489385234</v>
+        <v>155.7801767719407</v>
       </c>
       <c r="I16" t="n">
-        <v>143.5795489385234</v>
+        <v>155.7801767719407</v>
       </c>
       <c r="J16" t="n">
-        <v>143.5795489385234</v>
+        <v>213.109746776398</v>
       </c>
       <c r="K16" t="n">
-        <v>143.5795489385234</v>
+        <v>323.1168479501371</v>
       </c>
       <c r="L16" t="n">
-        <v>143.5795489385234</v>
+        <v>467.6533313759771</v>
       </c>
       <c r="M16" t="n">
-        <v>294.9816337051561</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="N16" t="n">
-        <v>294.9816337051561</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348923</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351831</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426679</v>
@@ -5476,7 +5476,7 @@
         <v>98.68003660117139</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099492</v>
+        <v>54.46671210099493</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961941</v>
+        <v>463.3923242961949</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040786</v>
+        <v>410.1015905040794</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718625</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G17" t="n">
         <v>65.15430707116217</v>
@@ -5510,55 +5510,55 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553978</v>
+        <v>38.41954622895918</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07983466553978</v>
+        <v>38.41954622895918</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07983466553978</v>
+        <v>38.41954622895918</v>
       </c>
       <c r="L17" t="n">
-        <v>117.3186690961015</v>
+        <v>85.14038870971936</v>
       </c>
       <c r="M17" t="n">
-        <v>198.1805681830489</v>
+        <v>166.0022877966667</v>
       </c>
       <c r="N17" t="n">
-        <v>384.7935221691037</v>
+        <v>241.3301809323592</v>
       </c>
       <c r="O17" t="n">
-        <v>419.0141568617714</v>
+        <v>275.550815625027</v>
       </c>
       <c r="P17" t="n">
-        <v>419.0141568617714</v>
+        <v>275.550815625027</v>
       </c>
       <c r="Q17" t="n">
-        <v>605.6271108478262</v>
+        <v>462.1637696110818</v>
       </c>
       <c r="R17" t="n">
-        <v>707.1675751369976</v>
+        <v>563.7042339002533</v>
       </c>
       <c r="S17" t="n">
-        <v>707.1675751369976</v>
+        <v>632.9356035051042</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369976</v>
+        <v>707.1675751369977</v>
       </c>
       <c r="U17" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235035</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530775</v>
+        <v>626.500875753078</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122039</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.6430385441253</v>
+        <v>366.2489832642058</v>
       </c>
       <c r="C18" t="n">
-        <v>188.6430385441253</v>
+        <v>176.8367089971695</v>
       </c>
       <c r="D18" t="n">
-        <v>188.6430385441253</v>
+        <v>176.8367089971695</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553978</v>
+        <v>176.8367089971695</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553978</v>
+        <v>176.8367089971695</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553978</v>
+        <v>176.5329465118932</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553978</v>
+        <v>176.5329465118932</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097944</v>
@@ -5610,34 +5610,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P18" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R18" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="S18" t="n">
-        <v>569.4469442395743</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="T18" t="n">
-        <v>569.4469442395743</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="U18" t="n">
-        <v>379.0449913918498</v>
+        <v>556.6509361119303</v>
       </c>
       <c r="V18" t="n">
-        <v>188.6430385441253</v>
+        <v>366.2489832642058</v>
       </c>
       <c r="W18" t="n">
-        <v>188.6430385441253</v>
+        <v>366.2489832642058</v>
       </c>
       <c r="X18" t="n">
-        <v>188.6430385441253</v>
+        <v>366.2489832642058</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.6430385441253</v>
+        <v>366.2489832642058</v>
       </c>
     </row>
     <row r="19">
@@ -5732,13 +5732,13 @@
         <v>410.1015905040792</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210056</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116215</v>
@@ -5750,43 +5750,43 @@
         <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07983466553978</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="K20" t="n">
-        <v>144.7304774126106</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="L20" t="n">
-        <v>191.4513198933707</v>
+        <v>248.4136311323548</v>
       </c>
       <c r="M20" t="n">
-        <v>272.3132189803181</v>
+        <v>329.2755302193021</v>
       </c>
       <c r="N20" t="n">
-        <v>458.9261729663729</v>
+        <v>404.6034233549946</v>
       </c>
       <c r="O20" t="n">
-        <v>493.1468076590406</v>
+        <v>438.8240580476624</v>
       </c>
       <c r="P20" t="n">
-        <v>493.1468076590406</v>
+        <v>531.3951392159328</v>
       </c>
       <c r="Q20" t="n">
-        <v>679.7597616450954</v>
+        <v>531.3951392159328</v>
       </c>
       <c r="R20" t="n">
-        <v>679.7597616450954</v>
+        <v>632.9356035051042</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7597616450954</v>
+        <v>632.9356035051042</v>
       </c>
       <c r="T20" t="n">
-        <v>753.991733276989</v>
+        <v>707.1675751369977</v>
       </c>
       <c r="U20" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879308</v>
       </c>
       <c r="W20" t="n">
         <v>689.4655660235042</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>373.18782758154</v>
+        <v>364.919825215332</v>
       </c>
       <c r="C21" t="n">
-        <v>250.5333042915615</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="D21" t="n">
-        <v>250.5333042915615</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="E21" t="n">
-        <v>250.5333042915615</v>
+        <v>175.5075509482957</v>
       </c>
       <c r="F21" t="n">
-        <v>250.5333042915615</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G21" t="n">
-        <v>250.5333042915615</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H21" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I21" t="n">
         <v>15.07983466553978</v>
@@ -5832,13 +5832,13 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142023</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N21" t="n">
         <v>538.6656803998546</v>
@@ -5847,34 +5847,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P21" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596548</v>
       </c>
       <c r="R21" t="n">
-        <v>753.991733276989</v>
+        <v>745.723730910781</v>
       </c>
       <c r="S21" t="n">
-        <v>753.991733276989</v>
+        <v>745.723730910781</v>
       </c>
       <c r="T21" t="n">
-        <v>563.5897804292645</v>
+        <v>745.723730910781</v>
       </c>
       <c r="U21" t="n">
-        <v>373.18782758154</v>
+        <v>745.723730910781</v>
       </c>
       <c r="V21" t="n">
-        <v>373.18782758154</v>
+        <v>555.3217780630565</v>
       </c>
       <c r="W21" t="n">
-        <v>373.18782758154</v>
+        <v>555.3217780630565</v>
       </c>
       <c r="X21" t="n">
-        <v>373.18782758154</v>
+        <v>555.3217780630565</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.18782758154</v>
+        <v>364.919825215332</v>
       </c>
     </row>
     <row r="22">
@@ -5984,40 +5984,40 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="J23" t="n">
-        <v>201.6927886515946</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6927886515946</v>
+        <v>70.95335735993308</v>
       </c>
       <c r="L23" t="n">
-        <v>248.4136311323547</v>
+        <v>117.6741998406933</v>
       </c>
       <c r="M23" t="n">
-        <v>435.0265851184095</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N23" t="n">
-        <v>510.3544782541019</v>
+        <v>273.8639920633331</v>
       </c>
       <c r="O23" t="n">
-        <v>544.5751129467698</v>
+        <v>308.0846267560009</v>
       </c>
       <c r="P23" t="n">
-        <v>578.2192973559239</v>
+        <v>308.0846267560009</v>
       </c>
       <c r="Q23" t="n">
-        <v>578.2192973559239</v>
+        <v>462.1637696110816</v>
       </c>
       <c r="R23" t="n">
-        <v>679.7597616450953</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7597616450953</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769888</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
         <v>753.9917332769888</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373.18782758154</v>
+        <v>562.8560936758521</v>
       </c>
       <c r="C24" t="n">
-        <v>373.18782758154</v>
+        <v>562.8560936758521</v>
       </c>
       <c r="D24" t="n">
-        <v>373.18782758154</v>
+        <v>402.0759774368838</v>
       </c>
       <c r="E24" t="n">
-        <v>199.6246237029544</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="F24" t="n">
-        <v>199.6246237029544</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G24" t="n">
-        <v>199.6246237029544</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H24" t="n">
-        <v>123.5277239018906</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
         <v>538.6656803998546</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="U24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="V24" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5897804292645</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="X24" t="n">
-        <v>563.5897804292645</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.18782758154</v>
+        <v>741.3919466027871</v>
       </c>
     </row>
     <row r="25">
@@ -6203,13 +6203,13 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874114</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350258</v>
       </c>
       <c r="F26" t="n">
         <v>406.0329511471344</v>
@@ -6218,58 +6218,58 @@
         <v>198.605251714157</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845027</v>
+        <v>63.71974859845014</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589557</v>
+        <v>171.252799658954</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528788</v>
+        <v>375.9427824528773</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523998</v>
+        <v>634.0135279523986</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581081</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.903126212562</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666887</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.58913751441</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>456.93279666515</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="C27" t="n">
-        <v>267.5205223981137</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4799032937276</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514208</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514208</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514208</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514208</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514208</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102249</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593966</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634021</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741613</v>
+        <v>577.7945675741614</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931957</v>
+        <v>709.4955071931959</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512957</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512957</v>
+        <v>786.1817761339615</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512957</v>
+        <v>749.1987971930963</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512957</v>
+        <v>749.1987971930963</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204984</v>
+        <v>532.0564501168435</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428341</v>
+        <v>508.0732996391793</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5565669464681</v>
+        <v>480.634743688269</v>
       </c>
       <c r="W27" t="n">
-        <v>470.799159822215</v>
+        <v>211.2361744185603</v>
       </c>
       <c r="X27" t="n">
-        <v>466.9323275843668</v>
+        <v>207.3693421807123</v>
       </c>
       <c r="Y27" t="n">
-        <v>456.93279666515</v>
+        <v>197.3698112614956</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.42585097558458</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>71.42585097558458</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D28" t="n">
-        <v>139.0449302461419</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="E28" t="n">
-        <v>139.0449302461419</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="F28" t="n">
-        <v>139.0449302461419</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="G28" t="n">
-        <v>139.0449302461419</v>
+        <v>103.5357786856995</v>
       </c>
       <c r="H28" t="n">
-        <v>173.8498226643285</v>
+        <v>150.7195280263406</v>
       </c>
       <c r="I28" t="n">
-        <v>173.8498226643285</v>
+        <v>198.8649926578163</v>
       </c>
       <c r="J28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="K28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="L28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737347</v>
+        <v>48.13006019737324</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389711</v>
+        <v>39.61015627389699</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874115</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942537</v>
+        <v>757.2538204942531</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350262</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471348</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141575</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845068</v>
+        <v>63.71974859845025</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
         <v>634.013527952399</v>
@@ -6491,22 +6491,22 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.81693727542529</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="C30" t="n">
-        <v>35.91669941514208</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91669941514208</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514208</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102249</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512958</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339615</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339615</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339615</v>
+        <v>793.1206204512958</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031642</v>
+        <v>791.6194355204985</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407255</v>
+        <v>551.9951228973787</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2588847745895</v>
+        <v>308.9154048010128</v>
       </c>
       <c r="W30" t="n">
-        <v>463.8603155048809</v>
+        <v>255.1579976767595</v>
       </c>
       <c r="X30" t="n">
-        <v>459.9934832670327</v>
+        <v>251.2911654389114</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.3527902023604</v>
+        <v>186.1637746420379</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>71.16756695283692</v>
+        <v>84.0621640466176</v>
       </c>
       <c r="J31" t="n">
-        <v>71.16756695283692</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="K31" t="n">
-        <v>71.16756695283692</v>
+        <v>176.3748555582987</v>
       </c>
       <c r="L31" t="n">
-        <v>71.16756695283692</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="M31" t="n">
-        <v>71.16756695283692</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U31" t="n">
         <v>157.6757382032152</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737342</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806687</v>
+        <v>877.5242945806683</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601007</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734634</v>
+        <v>594.0635360734633</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581621</v>
+        <v>403.268799458162</v>
       </c>
       <c r="G32" t="n">
         <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465893</v>
       </c>
       <c r="I32" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>377.3257080180682</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>636.215886285785</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>929.247121159689</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.744350082338</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1463.134320561963</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218728</v>
+        <v>1660.362603721341</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
-        <v>1783.03797219705</v>
+        <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.700058896461</v>
+        <v>1769.70005889646</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099538</v>
+        <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>244.3799768388542</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="C33" t="n">
-        <v>244.3799768388542</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="D33" t="n">
-        <v>244.3799768388542</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="E33" t="n">
-        <v>244.3799768388542</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="F33" t="n">
-        <v>83.95226055609825</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="G33" t="n">
-        <v>83.95226055609825</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="H33" t="n">
-        <v>83.95226055609825</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="I33" t="n">
-        <v>83.95226055609825</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
         <v>73.6240854598214</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800948</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800948</v>
+        <v>785.9258361627604</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800948</v>
+        <v>785.9258361627604</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800948</v>
+        <v>785.9258361627604</v>
       </c>
       <c r="T33" t="n">
-        <v>575.722333403842</v>
+        <v>653.9868581722144</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5752534987678</v>
+        <v>414.3625455490946</v>
       </c>
       <c r="V33" t="n">
-        <v>525.9727681204475</v>
+        <v>387.7600601707744</v>
       </c>
       <c r="W33" t="n">
-        <v>473.0514315687845</v>
+        <v>334.8387236191115</v>
       </c>
       <c r="X33" t="n">
-        <v>253.5434371854809</v>
+        <v>331.8079619538536</v>
       </c>
       <c r="Y33" t="n">
-        <v>244.3799768388542</v>
+        <v>322.644501607227</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.98934377257913</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>71.98934377257913</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D34" t="n">
-        <v>71.98934377257913</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E34" t="n">
-        <v>71.98934377257913</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F34" t="n">
-        <v>72.80148990805394</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G34" t="n">
-        <v>117.9570585171295</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H34" t="n">
-        <v>117.9570585171295</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I34" t="n">
-        <v>166.9219559168007</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J34" t="n">
-        <v>260.0540801966774</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966774</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966774</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966774</v>
+        <v>173.8295605137724</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966774</v>
+        <v>173.8295605137724</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966774</v>
+        <v>173.8295605137724</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966774</v>
+        <v>173.8295605137724</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966774</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842376</v>
+        <v>238.7151064842371</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898358</v>
+        <v>229.1705629898353</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416535</v>
+        <v>154.0755159416532</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370225</v>
+        <v>122.9678848370222</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099205</v>
+        <v>46.20197908099188</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010586</v>
+        <v>38.51814573010577</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.660759443941</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361094</v>
+        <v>623.0190675361106</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513517</v>
+        <v>544.0833815513527</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756362</v>
+        <v>477.7066225756369</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338509</v>
+        <v>377.2826389338513</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634019</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786705</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>51.57576979998688</v>
       </c>
       <c r="J35" t="n">
-        <v>69.82005138951399</v>
+        <v>244.9005435987446</v>
       </c>
       <c r="K35" t="n">
-        <v>327.6762526658424</v>
+        <v>432.8985180875192</v>
       </c>
       <c r="L35" t="n">
-        <v>374.3970951466026</v>
+        <v>479.6193605682794</v>
       </c>
       <c r="M35" t="n">
-        <v>632.253296422931</v>
+        <v>560.4812596552267</v>
       </c>
       <c r="N35" t="n">
-        <v>707.5811895586235</v>
+        <v>635.8091527909191</v>
       </c>
       <c r="O35" t="n">
-        <v>965.4373908349519</v>
+        <v>670.0297874835869</v>
       </c>
       <c r="P35" t="n">
-        <v>965.4373908349519</v>
+        <v>670.0297874835869</v>
       </c>
       <c r="Q35" t="n">
-        <v>965.4373908349519</v>
+        <v>850.553744390245</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.843237480115</v>
+        <v>926.9595910354077</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.843237480115</v>
+        <v>971.0563429962498</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984135</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480117</v>
       </c>
       <c r="V35" t="n">
-        <v>992.529484598414</v>
+        <v>992.529484598416</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413451</v>
+        <v>926.0271658413469</v>
       </c>
       <c r="X35" t="n">
-        <v>837.417523378277</v>
+        <v>837.4175233782786</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447606</v>
+        <v>726.0777262447619</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.8420873596049</v>
+        <v>531.4569715383628</v>
       </c>
       <c r="C36" t="n">
-        <v>73.8420873596049</v>
+        <v>342.0446972713265</v>
       </c>
       <c r="D36" t="n">
-        <v>73.8420873596049</v>
+        <v>181.2645810323583</v>
       </c>
       <c r="E36" t="n">
-        <v>73.8420873596049</v>
+        <v>181.2645810323583</v>
       </c>
       <c r="F36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="G36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="H36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="K36" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548275</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938569</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978624</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086217</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276562</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857559</v>
+        <v>774.5366896347288</v>
       </c>
       <c r="R36" t="n">
-        <v>641.9601789281018</v>
+        <v>774.5366896347288</v>
       </c>
       <c r="S36" t="n">
-        <v>641.9601789281018</v>
+        <v>774.5366896347288</v>
       </c>
       <c r="T36" t="n">
-        <v>641.9601789281018</v>
+        <v>774.5366896347288</v>
       </c>
       <c r="U36" t="n">
-        <v>515.4696669229327</v>
+        <v>774.5366896347288</v>
       </c>
       <c r="V36" t="n">
-        <v>515.4696669229327</v>
+        <v>531.4569715383628</v>
       </c>
       <c r="W36" t="n">
-        <v>252.37794028654</v>
+        <v>531.4569715383628</v>
       </c>
       <c r="X36" t="n">
-        <v>252.37794028654</v>
+        <v>531.4569715383628</v>
       </c>
       <c r="Y36" t="n">
-        <v>252.37794028654</v>
+        <v>531.4569715383628</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078096</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078096</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.01906753611</v>
+        <v>623.0190675361112</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513523</v>
+        <v>544.0833815513532</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756366</v>
+        <v>477.7066225756373</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338513</v>
+        <v>377.2826389338517</v>
       </c>
       <c r="F38" t="n">
-        <v>244.817910263402</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786705</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="I38" t="n">
-        <v>20.8368647496023</v>
+        <v>51.57576979998688</v>
       </c>
       <c r="J38" t="n">
-        <v>20.8368647496023</v>
+        <v>244.9005435987446</v>
       </c>
       <c r="K38" t="n">
-        <v>278.5788986779575</v>
+        <v>502.7567448750737</v>
       </c>
       <c r="L38" t="n">
-        <v>325.2997411587177</v>
+        <v>549.4775873558339</v>
       </c>
       <c r="M38" t="n">
-        <v>583.1559424350461</v>
+        <v>630.3394864427812</v>
       </c>
       <c r="N38" t="n">
-        <v>658.4838355707385</v>
+        <v>705.6673795784736</v>
       </c>
       <c r="O38" t="n">
-        <v>916.3400368470669</v>
+        <v>739.8880142711414</v>
       </c>
       <c r="P38" t="n">
-        <v>916.3400368470669</v>
+        <v>739.8880142711414</v>
       </c>
       <c r="Q38" t="n">
-        <v>916.3400368470669</v>
+        <v>916.3400368470697</v>
       </c>
       <c r="R38" t="n">
-        <v>992.7458834922298</v>
+        <v>992.7458834922323</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7458834922298</v>
+        <v>992.7458834922323</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480117</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480117</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984145</v>
+        <v>992.5294845984165</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413455</v>
+        <v>926.0271658413474</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782775</v>
+        <v>837.417523378279</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447612</v>
+        <v>726.0777262447625</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.6471438550836</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="C39" t="n">
-        <v>344.6471438550836</v>
+        <v>581.6896672013855</v>
       </c>
       <c r="D39" t="n">
-        <v>344.6471438550836</v>
+        <v>420.9095509624173</v>
       </c>
       <c r="E39" t="n">
-        <v>171.0839399764981</v>
+        <v>247.3463470838317</v>
       </c>
       <c r="F39" t="n">
-        <v>171.0839399764981</v>
+        <v>86.91863080107581</v>
       </c>
       <c r="G39" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960495</v>
       </c>
       <c r="H39" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960495</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960495</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="K39" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548275</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938569</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978624</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086217</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276562</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857562</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857559</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="T39" t="n">
-        <v>748.8236898466912</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="U39" t="n">
-        <v>748.8236898466912</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="V39" t="n">
-        <v>748.8236898466912</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="W39" t="n">
-        <v>748.8236898466912</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="X39" t="n">
-        <v>748.8236898466912</v>
+        <v>771.1019414684218</v>
       </c>
       <c r="Y39" t="n">
-        <v>523.1829967820188</v>
+        <v>771.1019414684218</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="P40" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411138</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078096</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078096</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753163</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564246</v>
+        <v>708.1276389564247</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465749</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706557</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6518442323786</v>
+        <v>238.1412535628051</v>
       </c>
       <c r="L41" t="n">
-        <v>465.3730368670385</v>
+        <v>284.8620960435653</v>
       </c>
       <c r="M41" t="n">
-        <v>784.8346074773071</v>
+        <v>365.7239951305127</v>
       </c>
       <c r="N41" t="n">
-        <v>1098.762172136321</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
-        <v>1371.58247835231</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P41" t="n">
-        <v>1371.58247835231</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1371.58247835231</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
         <v>1384.940325262768</v>
@@ -7442,7 +7442,7 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181014</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178.3130507109011</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C42" t="n">
-        <v>178.3130507109011</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D42" t="n">
-        <v>178.3130507109011</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E42" t="n">
-        <v>178.3130507109011</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3130507109011</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988576</v>
+        <v>66.02930149988578</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7509,31 +7509,31 @@
         <v>785.269896520159</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="R42" t="n">
-        <v>785.269896520159</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="S42" t="n">
-        <v>608.4439546434536</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="T42" t="n">
-        <v>608.4439546434536</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="U42" t="n">
-        <v>608.4439546434536</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="V42" t="n">
-        <v>608.4439546434536</v>
+        <v>778.3310522028247</v>
       </c>
       <c r="W42" t="n">
-        <v>582.4895967025086</v>
+        <v>752.3766942618797</v>
       </c>
       <c r="X42" t="n">
-        <v>582.4895967025086</v>
+        <v>752.3766942618797</v>
       </c>
       <c r="Y42" t="n">
-        <v>356.8489036378362</v>
+        <v>752.3766942618797</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.69578692129991</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>51.69578692129991</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>51.69578692129991</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>51.69578692129991</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>51.69578692129991</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>54.73839042465906</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="H43" t="n">
-        <v>54.73839042465906</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="I43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="J43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="K43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145159</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.69578692129991</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564248</v>
+        <v>708.1276389564255</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706554</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660721</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400536</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06597548400536</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>284.8620960435646</v>
+        <v>707.9121095349434</v>
       </c>
       <c r="M44" t="n">
-        <v>365.7239951305119</v>
+        <v>842.9233381771552</v>
       </c>
       <c r="N44" t="n">
-        <v>679.6515597895257</v>
+        <v>918.2512313128476</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055148</v>
+        <v>952.4718660055154</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901258</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.58247835231</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
         <v>1384.940325262768</v>
@@ -7679,19 +7679,19 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889991</v>
+        <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181022</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.0715558736762</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C45" t="n">
-        <v>155.0715558736762</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D45" t="n">
-        <v>155.0715558736762</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E45" t="n">
-        <v>155.0715558736762</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F45" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G45" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
         <v>66.02930149988578</v>
@@ -7743,34 +7743,34 @@
         <v>701.644783262059</v>
       </c>
       <c r="P45" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028247</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>778.3310522028247</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S45" t="n">
-        <v>778.3310522028247</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T45" t="n">
-        <v>778.3310522028247</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="U45" t="n">
-        <v>538.7067395797048</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="V45" t="n">
-        <v>538.7067395797048</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="W45" t="n">
-        <v>269.3081703099962</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="X45" t="n">
-        <v>269.3081703099962</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.0715558736762</v>
+        <v>752.3766942618796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400536</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400536</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400536</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400536</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400536</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400536</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="K46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323076</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931777</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400536</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
   </sheetData>
@@ -8535,10 +8535,10 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>172.1063303597423</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N9" t="n">
         <v>163.4361383816801</v>
@@ -8772,13 +8772,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>240.304543756641</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466382</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786792</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9495,7 +9495,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786792</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0572332281111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891596</v>
       </c>
       <c r="E11" t="n">
-        <v>21.09257617147527</v>
+        <v>4.83271458932137</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>225.0509854869458</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6899088095807</v>
+        <v>52.19197549033376</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929897</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675142</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958204</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>130.3588748685668</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.7481996726992</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>204.1373032653822</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321085</v>
+        <v>4.832714589321057</v>
       </c>
       <c r="F14" t="n">
         <v>225.0509854869456</v>
@@ -23510,10 +23510,10 @@
         <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>163.145618841773</v>
       </c>
       <c r="I14" t="n">
-        <v>16.25986158215433</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.733281229299</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538034</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675142</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286627.8984323494</v>
+        <v>286627.8984323495</v>
       </c>
       <c r="C2" t="n">
-        <v>286627.8984323495</v>
+        <v>286627.8984323496</v>
       </c>
       <c r="D2" t="n">
         <v>286793.4276087238</v>
       </c>
       <c r="E2" t="n">
-        <v>246914.0143434687</v>
+        <v>246914.0143434689</v>
       </c>
       <c r="F2" t="n">
         <v>246914.0143434687</v>
       </c>
       <c r="G2" t="n">
-        <v>287208.5283790241</v>
+        <v>287208.5283790242</v>
       </c>
       <c r="H2" t="n">
         <v>287208.5283790241</v>
       </c>
       <c r="I2" t="n">
-        <v>287208.5283790242</v>
+        <v>287208.5283790243</v>
       </c>
       <c r="J2" t="n">
+        <v>287208.5283790237</v>
+      </c>
+      <c r="K2" t="n">
         <v>287208.5283790238</v>
       </c>
-      <c r="K2" t="n">
-        <v>287208.5283790239</v>
-      </c>
       <c r="L2" t="n">
-        <v>287208.5283790245</v>
+        <v>287208.5283790244</v>
       </c>
       <c r="M2" t="n">
         <v>287208.5283790241</v>
       </c>
       <c r="N2" t="n">
-        <v>287208.5283790241</v>
+        <v>287208.5283790242</v>
       </c>
       <c r="O2" t="n">
         <v>287208.5283790239</v>
@@ -26372,10 +26372,10 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787143</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
         <v>95439.52541913326</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262466</v>
+        <v>96101.69331262475</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.36629232256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924373</v>
+        <v>72254.91485924377</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>424861.9413331364</v>
       </c>
       <c r="E4" t="n">
+        <v>313625.6347290153</v>
+      </c>
+      <c r="F4" t="n">
         <v>313625.6347290154</v>
-      </c>
-      <c r="F4" t="n">
-        <v>313625.6347290153</v>
       </c>
       <c r="G4" t="n">
         <v>384233.5027722372</v>
@@ -26439,13 +26439,13 @@
         <v>384233.5027722372</v>
       </c>
       <c r="J4" t="n">
-        <v>385080.4565238518</v>
+        <v>385080.456523852</v>
       </c>
       <c r="K4" t="n">
         <v>385080.4565238518</v>
       </c>
       <c r="L4" t="n">
-        <v>385065.6665564732</v>
+        <v>385065.6665564733</v>
       </c>
       <c r="M4" t="n">
         <v>384255.7291831548</v>
@@ -26476,16 +26476,16 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774777</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="I5" t="n">
         <v>38672.33876582418</v>
@@ -26494,16 +26494,16 @@
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868732</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868732</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887323</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171945.3339617259</v>
+        <v>-171949.800345931</v>
       </c>
       <c r="C6" t="n">
-        <v>-171945.3339617258</v>
+        <v>-171949.8003459309</v>
       </c>
       <c r="D6" t="n">
-        <v>-172884.4110182028</v>
+        <v>-172887.6041010513</v>
       </c>
       <c r="E6" t="n">
-        <v>-374480.6925020088</v>
+        <v>-374790.6503022818</v>
       </c>
       <c r="F6" t="n">
-        <v>-95354.57732329446</v>
+        <v>-95664.5351235681</v>
       </c>
       <c r="G6" t="n">
-        <v>-231136.8385781705</v>
+        <v>-231136.8385781704</v>
       </c>
       <c r="H6" t="n">
         <v>-135697.3131590372</v>
       </c>
       <c r="I6" t="n">
-        <v>-135697.3131590372</v>
+        <v>-135697.3131590371</v>
       </c>
       <c r="J6" t="n">
-        <v>-288817.8883718708</v>
+        <v>-288817.888371871</v>
       </c>
       <c r="K6" t="n">
-        <v>-145321.6053649915</v>
+        <v>-145321.6053649916</v>
       </c>
       <c r="L6" t="n">
-        <v>-241283.5790729214</v>
+        <v>-241283.5790729217</v>
       </c>
       <c r="M6" t="n">
-        <v>-184157.8626951408</v>
+        <v>-184157.8626951405</v>
       </c>
       <c r="N6" t="n">
-        <v>-137960.4964028181</v>
+        <v>-137960.4964028179</v>
       </c>
       <c r="O6" t="n">
-        <v>-213486.3061559655</v>
+        <v>-213486.3061559657</v>
       </c>
       <c r="P6" t="n">
         <v>-141231.3912967217</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530678</v>
@@ -26707,19 +26707,19 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
+        <v>213.484750524001</v>
+      </c>
+      <c r="K2" t="n">
         <v>213.4847505240009</v>
       </c>
-      <c r="K2" t="n">
-        <v>213.484750524001</v>
-      </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="O2" t="n">
         <v>241.009769215476</v>
@@ -26796,16 +26796,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="I4" t="n">
         <v>188.4979333192472</v>
@@ -26817,19 +26817,19 @@
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700293</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700293</v>
       </c>
       <c r="O4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
-        <v>350.824693550067</v>
+        <v>350.8246935500671</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407808</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540321</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929186</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792338</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700287</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003827</v>
+        <v>90.36388418003781</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792338</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.5786919263081</v>
+        <v>73.70860737949914</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27901,7 +27901,7 @@
         <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>236.91502223125</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
         <v>224.246294399988</v>
@@ -27935,16 +27935,16 @@
         <v>184.3189018843524</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>155.9730654365651</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>169.0096727568758</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>146.144319312168</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>214.1136647994571</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78161896459402</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300915</v>
+        <v>6.78521280989326</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>153.9316356498856</v>
       </c>
       <c r="P11" t="n">
-        <v>138.2677668684729</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V12" t="n">
-        <v>72.56719805095278</v>
+        <v>52.15098759615518</v>
       </c>
       <c r="W12" t="n">
-        <v>78.20665025776435</v>
+        <v>78.20665025776452</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>86.08152902613037</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I13" t="n">
-        <v>178.1482641530678</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
         <v>120.2396075829089</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918996</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L13" t="n">
-        <v>133.4275775870639</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21686539889342</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="N13" t="n">
-        <v>178.1482641530678</v>
+        <v>160.3145680214351</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P13" t="n">
         <v>58.47859890024885</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="14">
@@ -28351,19 +28351,19 @@
         <v>76.78161896459402</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300915</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>101.4246658520664</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>142.9471491278488</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
         <v>178.1482641530678</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>107.5569647132204</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446044746268</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,19 +28448,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>3.092858000757047</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>164.6161727016503</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764134</v>
       </c>
       <c r="V15" t="n">
         <v>178.1482641530678</v>
@@ -28469,7 +28469,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>28.81498112022336</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
         <v>178.1482641530678</v>
@@ -28500,34 +28500,34 @@
         <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918996</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817886</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530678</v>
+        <v>78.8161883955508</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O16" t="n">
-        <v>94.89311978538905</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28582,28 +28582,28 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>241.009769215476</v>
+        <v>264.5852354411522</v>
       </c>
       <c r="J17" t="n">
         <v>76.78161896459402</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300915</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L17" t="n">
-        <v>56.07877974727434</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108871</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q17" t="n">
         <v>278.2096703566692</v>
@@ -28612,10 +28612,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
         <v>297.4476709269844</v>
@@ -28643,28 +28643,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>148.4438796142033</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
-        <v>8.891450172963857</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624301</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764137</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615501</v>
+        <v>52.15098759615498</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28749,16 +28749,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M19" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024885</v>
@@ -28822,10 +28822,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459402</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K20" t="n">
-        <v>137.6874373453624</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,19 +28834,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108871</v>
+        <v>108.5981149453012</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
         <v>227.5169945584482</v>
@@ -28855,7 +28855,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>66.09017346728722</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,19 +28889,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,22 +28922,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890776</v>
+        <v>133.4039343206926</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
-        <v>26.47299028624304</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>48.73013617764137</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615498</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477835</v>
       </c>
     </row>
     <row r="22">
@@ -28986,16 +28986,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M22" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024885</v>
@@ -29056,19 +29056,19 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300915</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>49.07599700679997</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742193</v>
+        <v>245.3472348708368</v>
       </c>
       <c r="R23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29114,31 +29114,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>50.39959378272097</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890776</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.20665025776435</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477838</v>
+        <v>217.7799532007268</v>
       </c>
     </row>
     <row r="25">
@@ -29223,16 +29223,16 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M25" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024885</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>101.7121021632363</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29372,10 +29372,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161012</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890776</v>
+        <v>98.10665163762106</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4847505240009</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29448,28 +29448,28 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>200.9808546427339</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I28" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J28" t="n">
-        <v>213.4847505240009</v>
+        <v>188.2169020457296</v>
       </c>
       <c r="K28" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817885</v>
       </c>
       <c r="M28" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024885</v>
@@ -29481,25 +29481,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>167.8169160426855</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890776</v>
@@ -29642,22 +29642,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>158.9081692451208</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>174.5338191252091</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7007749271525</v>
@@ -29688,22 +29688,22 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2396075829089</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817885</v>
+        <v>122.8464209125333</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N31" t="n">
-        <v>213.484750524001</v>
+        <v>16.52015736928131</v>
       </c>
       <c r="O31" t="n">
         <v>37.47888399777676</v>
@@ -29718,25 +29718,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>194.1953356407509</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407497</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.666584282866893</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890776</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>84.35133539484968</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3124603908652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29916,19 +29916,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>139.7472318502394</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3124603908652</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3124603908652</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908652</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K34" t="n">
         <v>67.02998013918996</v>
@@ -29937,7 +29937,7 @@
         <v>32.15181624817885</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889342</v>
+        <v>164.7813109239757</v>
       </c>
       <c r="N34" t="n">
         <v>16.52015736928131</v>
@@ -29949,31 +29949,31 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="J35" t="n">
-        <v>95.21018622674244</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1880015163296</v>
+        <v>196.624136074356</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006672</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>15.0919723510887</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742193</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>3.400400684643885</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
@@ -30119,13 +30119,13 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>112.0024626117712</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243774206982891</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.7007749271525</v>
+        <v>204.257276861</v>
       </c>
       <c r="H37" t="n">
         <v>165.8243976546666</v>
@@ -30165,7 +30165,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>155.796109516756</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K37" t="n">
         <v>67.02998013918996</v>
@@ -30198,13 +30198,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="I38" t="n">
-        <v>241.009769215476</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459402</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="K38" t="n">
-        <v>267.0726809628213</v>
+        <v>267.1880015163302</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8945117006672</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>15.0919723510887</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742193</v>
+        <v>267.9461032757333</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="S38" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7988264675706</v>
       </c>
       <c r="H39" t="n">
         <v>125.7355245857741</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890776</v>
@@ -30353,7 +30353,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>186.0459986258162</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>177.2326431460725</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30423,7 +30423,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.7734878975363</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R40" t="n">
         <v>203.4299611556341</v>
@@ -30435,13 +30435,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562687</v>
+        <v>272.0591682562685</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30484,13 +30484,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
-        <v>6.727192146300908</v>
+        <v>54.6962924800651</v>
       </c>
       <c r="L41" t="n">
-        <v>230.3033839938381</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>241.009769215476</v>
@@ -30499,13 +30499,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>15.0919723510887</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.71173703742193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8815453823668</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
         <v>241.009769215476</v>
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>137.0243603682427</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S42" t="n">
-        <v>16.53310886206594</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
         <v>214.9709236054903</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30630,13 +30630,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>171.7741117992324</v>
+        <v>234.2196012882093</v>
       </c>
       <c r="H43" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
         <v>120.2396075829089</v>
@@ -30663,7 +30663,7 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S43" t="n">
         <v>235.4380443661805</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.009769215476</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30718,22 +30718,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.781618964594</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146300901</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>212.1972505846455</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>54.69629248006511</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
@@ -30773,31 +30773,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>137.0243603682428</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30830,19 +30830,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>110.2900378420689</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>241.009769215476</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,22 +30879,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1286145600885</v>
+        <v>70.79498655683763</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889341</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777677</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -31753,7 +31753,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501027</v>
@@ -31762,31 +31762,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L11" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168794</v>
@@ -31835,28 +31835,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K12" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q12" t="n">
         <v>27.77822605795505</v>
@@ -31868,7 +31868,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375089</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H13" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M13" t="n">
         <v>28.59833074786395</v>
@@ -31932,10 +31932,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P13" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27687899545177</v>
@@ -31947,10 +31947,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501027</v>
@@ -31999,31 +31999,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L14" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168794</v>
@@ -32072,28 +32072,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K15" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q15" t="n">
         <v>27.77822605795505</v>
@@ -32105,7 +32105,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375089</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H16" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M16" t="n">
         <v>28.59833074786395</v>
@@ -32169,10 +32169,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P16" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545177</v>
@@ -32184,10 +32184,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501027</v>
@@ -32236,31 +32236,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L17" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168794</v>
@@ -32309,28 +32309,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K18" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795505</v>
@@ -32342,7 +32342,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375089</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H19" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M19" t="n">
         <v>28.59833074786395</v>
@@ -32406,10 +32406,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P19" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545177</v>
@@ -32421,10 +32421,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501027</v>
@@ -32473,31 +32473,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L20" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168794</v>
@@ -32546,28 +32546,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K21" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795505</v>
@@ -32579,7 +32579,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375089</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H22" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M22" t="n">
         <v>28.59833074786395</v>
@@ -32643,10 +32643,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P22" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545177</v>
@@ -32658,10 +32658,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501027</v>
@@ -32710,31 +32710,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L23" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168794</v>
@@ -32783,28 +32783,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K24" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795505</v>
@@ -32816,7 +32816,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375089</v>
@@ -32856,22 +32856,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H25" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M25" t="n">
         <v>28.59833074786395</v>
@@ -32880,10 +32880,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P25" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545177</v>
@@ -32895,10 +32895,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>0.4067191319631738</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217855</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501027</v>
@@ -32947,31 +32947,31 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246062</v>
       </c>
       <c r="L26" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727861</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032869</v>
+        <v>71.4163207803287</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401908</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556026</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521939</v>
+        <v>58.4867195752194</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178822</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318174</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610833</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168794</v>
@@ -33020,28 +33020,28 @@
         <v>2.10169233712263</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729629</v>
+        <v>7.49240910372963</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884586</v>
       </c>
       <c r="K27" t="n">
         <v>35.13987592000175</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447584</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133256</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427558</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134028</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862173</v>
+        <v>41.55471433862174</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795505</v>
@@ -33053,7 +33053,7 @@
         <v>4.042083127935663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971371</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375089</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924976</v>
       </c>
       <c r="H28" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014383</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602958</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752835</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600459</v>
+        <v>27.1238822160046</v>
       </c>
       <c r="M28" t="n">
         <v>28.59833074786395</v>
@@ -33117,10 +33117,10 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837958</v>
       </c>
       <c r="P28" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221261</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545177</v>
@@ -33132,10 +33132,10 @@
         <v>3.179435135629252</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679439</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590788</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631739</v>
+        <v>0.4067191319631738</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217856</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645946</v>
+        <v>34.51977792645945</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246063</v>
+        <v>51.73619878246061</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727861</v>
+        <v>64.1833294172786</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032869</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401906</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556028</v>
+        <v>68.52759814556025</v>
       </c>
       <c r="P44" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521939</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178823</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318174</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610835</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.0325375305570539</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650134</v>
       </c>
       <c r="H45" t="n">
         <v>2.10169233712263</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729631</v>
+        <v>7.492409103729629</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000175</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447583</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133257</v>
+        <v>55.13840432133255</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427557</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134027</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862173</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795505</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935664</v>
+        <v>4.042083127935663</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971373</v>
+        <v>0.8771368109971369</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375089</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H46" t="n">
         <v>1.622059239773298</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014384</v>
+        <v>5.486474402014382</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L46" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786396</v>
+        <v>28.59833074786395</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309194</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542662</v>
+        <v>8.203174846542661</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629252</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779517221567944</v>
+        <v>0.7795172215679438</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00995128367959079</v>
+        <v>0.009951283679590786</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35197,7 +35197,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.05802066359235148</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192472</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514387</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P11" t="n">
-        <v>123.1757945173842</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156459</v>
+        <v>88.43652711564579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>38.34679395543476</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296703</v>
       </c>
       <c r="M12" t="n">
         <v>183.5117642464702</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5313434880997363</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.69108318109537</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235712</v>
+        <v>32.96561390235701</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084272</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.44748922591536</v>
+        <v>9.447489225915247</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840114</v>
       </c>
       <c r="I13" t="n">
-        <v>13.29529608510279</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2757613388851</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541743</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837865</v>
+        <v>143.7944106521537</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6693801552911</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937862</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,16 +35650,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258603</v>
+        <v>148.6174360346525</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O14" t="n">
-        <v>177.5134467972103</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="P14" t="n">
         <v>163.0562918019791</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543476</v>
+        <v>38.3467939554348</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296709</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35796,34 +35796,34 @@
         <v>9.44748922591536</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840125</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015888</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>53.59932299665737</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>57.41423578761228</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.669665252819</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937862</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>23.57546622567616</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,31 +35887,31 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>103.2715499298604</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N17" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
         <v>47.29712943433467</v>
@@ -35972,13 +35972,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O18" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="K20" t="n">
-        <v>130.9602451990614</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641145</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N20" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>93.50614259421251</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543476</v>
+        <v>38.3467939554348</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296709</v>
@@ -36209,13 +36209,13 @@
         <v>183.5117642464702</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192473</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43790171150839</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258603</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M23" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514387</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P23" t="n">
-        <v>33.98402465571126</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>155.6354978334149</v>
       </c>
       <c r="R23" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
         <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065871</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704125</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933625</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729124</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163412</v>
+        <v>18.60320514163423</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.86782985903284</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30210027329022</v>
+        <v>68.30210027329034</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>35.1564569880673</v>
+        <v>47.66035286933447</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63178245603601</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109198</v>
+        <v>67.97729446282068</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163412</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.60693690676247</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,22 +36984,22 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603589</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.24514294109198</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.69460466435443</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>196.9645931547197</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>137.5308414262713</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>207.5852682445644</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>261.5052305734513</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858948</v>
+        <v>290.4012413360092</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397766</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534433</v>
+        <v>104.4835986033278</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849839</v>
+        <v>19.43091500849847</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.69553972589711</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37212,19 +37212,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8203496317927323</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.61168546371273</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.45949232290016</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795625</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>139.5644455250822</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.09547442717607</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079269</v>
+        <v>31.04939904079246</v>
       </c>
       <c r="J35" t="n">
-        <v>18.42856726214842</v>
+        <v>195.2775492916745</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700287</v>
+        <v>189.8969439280551</v>
       </c>
       <c r="L35" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4608093700287</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N35" t="n">
         <v>76.08878094514388</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700287</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3474312188466</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>77.17762287390168</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782032</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59328685644924</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90862676361875</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.55650193384751</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079246</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916745</v>
       </c>
       <c r="K38" t="n">
-        <v>260.3454888165204</v>
+        <v>260.4608093700293</v>
       </c>
       <c r="L38" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700287</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N38" t="n">
         <v>76.08878094514388</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700287</v>
+        <v>34.56629766936143</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>178.2343662383114</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>77.17762287390168</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>49.59328685644924</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>35.55650193384751</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>47.9691003337642</v>
       </c>
       <c r="L41" t="n">
-        <v>277.4961541764242</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618875</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N41" t="n">
         <v>317.0985501606199</v>
@@ -37795,19 +37795,19 @@
         <v>275.5760668848375</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37926,13 +37926,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.073336872079953</v>
+        <v>65.5188263610568</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.156801147511</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.5798080598419</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.86849640130762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>259.3900207672315</v>
+        <v>288.2025393980621</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641146</v>
+        <v>136.3749784264766</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>76.08878094514387</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848375</v>
+        <v>34.56629766936142</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643874</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310923</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.33362800325102</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0986344208986</v>
+        <v>3.765006417647671</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
